--- a/Optimisation data/combined/Biomarkers + Clinical A/top/RF_feature_importance/metrics_table.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical A/top/RF_feature_importance/metrics_table.xlsx
@@ -522,10 +522,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.8234491033640211</v>
+        <v>0.8199996238250412</v>
       </c>
       <c r="C4">
-        <v>0.03932485644646844</v>
+        <v>0.04243367311486969</v>
       </c>
       <c r="D4">
         <v>0.6333333333333334</v>
@@ -543,10 +543,10 @@
         <v>0.7037037037037037</v>
       </c>
       <c r="I4">
-        <v>0.6816226572152155</v>
+        <v>0.6929483976074302</v>
       </c>
       <c r="J4">
-        <v>0.5877616747181964</v>
+        <v>0.5990338164251208</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -561,10 +561,10 @@
         <v>19</v>
       </c>
       <c r="O4">
-        <v>0.7658708133971291</v>
+        <v>0.750602870813397</v>
       </c>
       <c r="P4">
-        <v>0.07284018495081455</v>
+        <v>0.07018039593915391</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -572,49 +572,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7851375018092343</v>
+        <v>0.780408163265306</v>
       </c>
       <c r="C5">
-        <v>0.02067441051373594</v>
+        <v>0.009795918367346968</v>
       </c>
       <c r="D5">
-        <v>0.7536231884057971</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E5">
-        <v>0.8666666666666666</v>
+        <v>0.8544303797468354</v>
       </c>
       <c r="F5">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="G5">
-        <v>0.6190476190476191</v>
+        <v>0.54</v>
       </c>
       <c r="H5">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.6260741122362803</v>
+        <v>0.7127577336849282</v>
       </c>
       <c r="J5">
-        <v>0.6022544283413849</v>
+        <v>0.6328502415458936</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5">
-        <v>0.5622870813397128</v>
+        <v>0.6768421052631579</v>
       </c>
       <c r="P5">
-        <v>0.04559416883719228</v>
+        <v>0.05960854575975858</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -622,49 +622,49 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6936977413870867</v>
+        <v>0.7291809972169407</v>
       </c>
       <c r="C6">
-        <v>0.03312544100067901</v>
+        <v>0.05573953308217269</v>
       </c>
       <c r="D6">
-        <v>0.6551724137931035</v>
+        <v>0.5762711864406779</v>
       </c>
       <c r="E6">
-        <v>0.6834532374100719</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.6129032258064516</v>
+        <v>0.53125</v>
       </c>
       <c r="H6">
-        <v>0.7037037037037037</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="I6">
-        <v>0.633216299250459</v>
+        <v>0.6101047952542277</v>
       </c>
       <c r="J6">
-        <v>0.6264090177133654</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6">
-        <v>0.6363588516746411</v>
+        <v>0.6249090909090909</v>
       </c>
       <c r="P6">
-        <v>0.1108183969750727</v>
+        <v>0.04878340505235926</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -672,49 +672,49 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7617336152219872</v>
+        <v>0.7230060072562898</v>
       </c>
       <c r="C7">
-        <v>0.02889221193379539</v>
+        <v>0.07565919763686081</v>
       </c>
       <c r="D7">
-        <v>0.6333333333333334</v>
+        <v>0.6885245901639345</v>
       </c>
       <c r="E7">
-        <v>0.6737588652482269</v>
+        <v>0.73943661971831</v>
       </c>
       <c r="F7">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G7">
-        <v>0.5757575757575758</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="H7">
-        <v>0.7037037037037037</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I7">
-        <v>0.6064863295119859</v>
+        <v>0.5850495080186957</v>
       </c>
       <c r="J7">
-        <v>0.5893719806763285</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O7">
-        <v>0.5885980861244019</v>
+        <v>0.5402775119617225</v>
       </c>
       <c r="P7">
-        <v>0.1068423469614598</v>
+        <v>0.0787238965615758</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -722,49 +722,49 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7821035856800254</v>
+        <v>0.7801252236135958</v>
       </c>
       <c r="C8">
-        <v>0.04042455321235098</v>
+        <v>0.03863755124112093</v>
       </c>
       <c r="D8">
-        <v>0.6229508196721312</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8">
-        <v>0.6690140845070423</v>
+        <v>0.5673758865248226</v>
       </c>
       <c r="F8">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="G8">
-        <v>0.5588235294117647</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="H8">
-        <v>0.7037037037037037</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="I8">
-        <v>0.5819829906668901</v>
+        <v>0.5877398214627141</v>
       </c>
       <c r="J8">
-        <v>0.5217391304347826</v>
+        <v>0.4718196457326893</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>0.7375167464114832</v>
+        <v>0.7413875598086124</v>
       </c>
       <c r="P8">
-        <v>0.04971508853155982</v>
+        <v>0.04884368388503456</v>
       </c>
     </row>
   </sheetData>
